--- a/MiddleAssignment_LeTuanSang/TestCase3/TestCase3_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestCase3/TestCase3_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\TestCase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D288F3E7-9F8E-40FD-BC54-596AF84A5469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8179C9FE-9393-45D4-8684-22FE585393CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1249,9 +1249,6 @@
     <t>Check Search Result by input keyword with space</t>
   </si>
   <si>
-    <t>5. Search Result display products for "kid"</t>
-  </si>
-  <si>
     <t>3. No suggestion</t>
   </si>
   <si>
@@ -1278,13 +1275,6 @@
 3. Observe Search Text Box</t>
   </si>
   <si>
-    <t>1. Get Lazada page
-2. Click on Search text box
-3. Paste "phone"
-4. Click Search icon
-5. Observe Search Result</t>
-  </si>
-  <si>
     <t>Search text box Function</t>
   </si>
   <si>
@@ -1292,12 +1282,6 @@
   </si>
   <si>
     <t>Check Search Result by input nothing and click Search button</t>
-  </si>
-  <si>
-    <t>1. Get Lazada page
-2. Input "kid&amp;bag"
-3. Click on Search icon
-4. Observe Search Result</t>
   </si>
   <si>
     <t>1. Get Lazada page
@@ -1306,29 +1290,10 @@
 4. Observe Search Result</t>
   </si>
   <si>
-    <t>1. Get Lazada page
-2. Input "kid"
-3. Click on Search icon
-4. Observe Search Result
-5. Clear Search text box
-6. Input "KID"
-7. Click on Search icon
-8. Observe Search Result</t>
-  </si>
-  <si>
     <t>8. Search Result display the same</t>
   </si>
   <si>
     <t>4. Search Result display products for "output"</t>
-  </si>
-  <si>
-    <t>4. Search Result display products for "kid", "bag" and " kid bag"</t>
-  </si>
-  <si>
-    <t>4. Search Result display products for "kid", "bag" and "kid bag"</t>
-  </si>
-  <si>
-    <t>4. Search Result display products for "phone"</t>
   </si>
   <si>
     <t>4.1. Poiter( cursor) is displayed
@@ -1431,30 +1396,6 @@
 4. Observe Search Result</t>
   </si>
   <si>
-    <t>1. Get Lazada page
-2. Input " "phone" "
-3. Click on Search icon
-4. Observe Search Result</t>
-  </si>
-  <si>
-    <t>1. Get Lazada page
-3. Input "     phone"
-4. Click on Search icon
-5. Observe Search Result</t>
-  </si>
-  <si>
-    <t>1. Get Lazada page
-2. Input " "kid" "bag" "
-3. Click on Search icon
-4. Observe Search Result</t>
-  </si>
-  <si>
-    <t>1. Get Lazada page
-2. Input "kid bag"
-3. Click on Search icon
-4. Observe Search Result</t>
-  </si>
-  <si>
     <t>Pre-condition: There is no search result for keyword "a"
 1. Get Lazada page
 2. Input Search text box "a"
@@ -1627,6 +1568,65 @@
   <si>
     <t>4.1 Search results is displayed 10 products in page 1 and 1 product in page 2
 4.2 Page button can click to move to that page</t>
+  </si>
+  <si>
+    <t>1. Get Lazada page
+2. Input " "a" "
+3. Click on Search icon
+4. Observe Search Result</t>
+  </si>
+  <si>
+    <t>4. Search Result display products for "a"</t>
+  </si>
+  <si>
+    <t>1. Get Lazada page
+3. Input "     a"
+4. Click on Search icon
+5. Observe Search Result</t>
+  </si>
+  <si>
+    <t>1. Get Lazada page
+2. Input " "a" "b" "
+3. Click on Search icon
+4. Observe Search Result</t>
+  </si>
+  <si>
+    <t>4. Search Result display products for "a", "b" and " a b"</t>
+  </si>
+  <si>
+    <t>1. Get Lazada page
+2. Input "a b"
+3. Click on Search icon
+4. Observe Search Result</t>
+  </si>
+  <si>
+    <t>4. Search Result display products for "a", "b" and "a b"</t>
+  </si>
+  <si>
+    <t>1. Get Lazada page
+2. Input "a&amp;b"
+3. Click on Search icon
+4. Observe Search Result</t>
+  </si>
+  <si>
+    <t>1. Get Lazada page
+2. Input "a"
+3. Click on Search icon
+4. Observe Search Result
+5. Clear Search text box
+6. Input "A"
+7. Click on Search icon
+8. Observe Search Result</t>
+  </si>
+  <si>
+    <t>1. Get Lazada page
+2. Click on Search text box
+3. Paste "a"
+4. Click Search icon
+5. Observe Search Result</t>
+  </si>
+  <si>
+    <t>5. Search Result display products for "a"</t>
   </si>
 </sst>
 </file>
@@ -3171,36 +3171,36 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3213,12 +3213,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3228,58 +3276,10 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5075,7 +5075,7 @@
   <dimension ref="A1:X106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5091,10 +5091,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="209"/>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="A1" s="204"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -5103,12 +5103,12 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
       <c r="E2" s="216"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -5131,11 +5131,11 @@
       <c r="A4" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -5149,9 +5149,9 @@
       <c r="A5" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -5165,9 +5165,9 @@
       <c r="A6" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -5178,11 +5178,11 @@
       <c r="A7" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="213" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -5377,9 +5377,9 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="207"/>
-      <c r="D18" s="208"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="62"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
@@ -5408,15 +5408,15 @@
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="163"/>
       <c r="B20" s="163" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C20" s="164"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="208"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="211"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="25.5">
       <c r="A21" s="56">
@@ -5444,10 +5444,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D22" s="165" t="s">
         <v>237</v>
@@ -5464,13 +5464,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D23" s="165" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="51"/>
@@ -5487,10 +5487,10 @@
         <v>220</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D24" s="165" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="51"/>
@@ -5507,10 +5507,10 @@
         <v>221</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D25" s="165" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="51"/>
@@ -5527,10 +5527,10 @@
         <v>238</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="D26" s="165" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="51"/>
@@ -5547,10 +5547,10 @@
         <v>219</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="D27" s="165" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
@@ -5567,10 +5567,10 @@
         <v>218</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="D28" s="165" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="51"/>
@@ -5587,10 +5587,10 @@
         <v>204</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="D29" s="165" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="51"/>
@@ -5607,10 +5607,10 @@
         <v>205</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D30" s="165" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E30" s="51"/>
       <c r="F30" s="51"/>
@@ -5627,10 +5627,10 @@
         <v>222</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="D31" s="165" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="51"/>
@@ -5647,10 +5647,10 @@
         <v>203</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="D32" s="165" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="51"/>
@@ -5664,12 +5664,12 @@
         <v>202</v>
       </c>
       <c r="C33" s="164"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="208"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="211"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="63.75">
       <c r="A34" s="56">
@@ -5680,10 +5680,10 @@
         <v>223</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D34" s="165" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="51"/>
@@ -5700,10 +5700,10 @@
         <v>224</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D35" s="165" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="51"/>
@@ -5720,10 +5720,10 @@
         <v>225</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D36" s="165" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="51"/>
@@ -5740,10 +5740,10 @@
         <v>226</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D37" s="165" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="51"/>
@@ -5770,13 +5770,13 @@
         <v>18</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D39" s="165" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="51"/>
@@ -5793,10 +5793,10 @@
         <v>216</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D40" s="165" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="51"/>
@@ -5810,13 +5810,13 @@
         <v>20</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D41" s="165" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="51"/>
@@ -5830,13 +5830,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D42" s="165" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="51"/>
@@ -5866,10 +5866,10 @@
         <v>214</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D44" s="165" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="51"/>
@@ -5886,10 +5886,10 @@
         <v>215</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D45" s="165" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="51"/>
@@ -5906,10 +5906,10 @@
         <v>227</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D46" s="165" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="51"/>
@@ -5923,13 +5923,13 @@
         <v>25</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D47" s="175" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="51"/>
@@ -5943,13 +5943,13 @@
         <v>26</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D48" s="165" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="51"/>
@@ -5976,13 +5976,13 @@
         <v>27</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E50" s="52"/>
       <c r="F50" s="51"/>
@@ -5992,11 +5992,11 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A51" s="72"/>
-      <c r="B51" s="211" t="s">
+      <c r="B51" s="206" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="212"/>
-      <c r="D51" s="213"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
       <c r="E51" s="64"/>
       <c r="F51" s="61"/>
       <c r="G51" s="61"/>
@@ -6012,10 +6012,10 @@
         <v>229</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D52" s="171" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="51"/>
@@ -6032,10 +6032,10 @@
         <v>231</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D53" s="171" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="51"/>
@@ -6052,10 +6052,10 @@
         <v>230</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D54" s="171" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="51"/>
@@ -6072,10 +6072,10 @@
         <v>228</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D55" s="171" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="51"/>
@@ -6089,13 +6089,13 @@
         <v>32</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D56" s="171" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="51"/>
@@ -6109,13 +6109,13 @@
         <v>33</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D57" s="171" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="51"/>
@@ -6129,13 +6129,13 @@
         <v>34</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D58" s="171" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="51"/>
@@ -6149,13 +6149,13 @@
         <v>35</v>
       </c>
       <c r="B59" s="51" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D59" s="171" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="51"/>
@@ -6165,11 +6165,11 @@
     </row>
     <row r="60" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A60" s="72"/>
-      <c r="B60" s="211" t="s">
+      <c r="B60" s="206" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="212"/>
-      <c r="D60" s="213"/>
+      <c r="C60" s="207"/>
+      <c r="D60" s="208"/>
       <c r="E60" s="64"/>
       <c r="F60" s="61"/>
       <c r="G60" s="61"/>
@@ -6185,10 +6185,10 @@
         <v>217</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D61" s="171" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="51"/>
@@ -6205,10 +6205,10 @@
         <v>211</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D62" s="171" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="51"/>
@@ -6225,10 +6225,10 @@
         <v>212</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D63" s="171" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E63" s="57"/>
       <c r="F63" s="51"/>
@@ -6308,9 +6308,9 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A69" s="72"/>
-      <c r="B69" s="206"/>
-      <c r="C69" s="207"/>
-      <c r="D69" s="208"/>
+      <c r="B69" s="209"/>
+      <c r="C69" s="210"/>
+      <c r="D69" s="211"/>
       <c r="E69" s="64"/>
       <c r="F69" s="61"/>
       <c r="G69" s="61"/>
@@ -6375,9 +6375,9 @@
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A74" s="72"/>
-      <c r="B74" s="206"/>
-      <c r="C74" s="207"/>
-      <c r="D74" s="208"/>
+      <c r="B74" s="209"/>
+      <c r="C74" s="210"/>
+      <c r="D74" s="211"/>
       <c r="E74" s="64"/>
       <c r="F74" s="61"/>
       <c r="G74" s="61"/>
@@ -6428,9 +6428,9 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A78" s="72"/>
-      <c r="B78" s="206"/>
-      <c r="C78" s="207"/>
-      <c r="D78" s="208"/>
+      <c r="B78" s="209"/>
+      <c r="C78" s="210"/>
+      <c r="D78" s="211"/>
       <c r="E78" s="64"/>
       <c r="F78" s="61"/>
       <c r="G78" s="61"/>
@@ -6593,9 +6593,9 @@
     </row>
     <row r="90" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A90" s="72"/>
-      <c r="B90" s="206"/>
-      <c r="C90" s="207"/>
-      <c r="D90" s="208"/>
+      <c r="B90" s="209"/>
+      <c r="C90" s="210"/>
+      <c r="D90" s="211"/>
       <c r="E90" s="64"/>
       <c r="F90" s="61"/>
       <c r="G90" s="61"/>
@@ -6646,9 +6646,9 @@
     </row>
     <row r="94" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A94" s="72"/>
-      <c r="B94" s="206"/>
-      <c r="C94" s="207"/>
-      <c r="D94" s="208"/>
+      <c r="B94" s="209"/>
+      <c r="C94" s="210"/>
+      <c r="D94" s="211"/>
       <c r="E94" s="64"/>
       <c r="F94" s="61"/>
       <c r="G94" s="61"/>
@@ -6699,9 +6699,9 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="72"/>
-      <c r="B98" s="206"/>
-      <c r="C98" s="207"/>
-      <c r="D98" s="208"/>
+      <c r="B98" s="209"/>
+      <c r="C98" s="210"/>
+      <c r="D98" s="211"/>
       <c r="E98" s="64"/>
       <c r="F98" s="61"/>
       <c r="G98" s="61"/>
@@ -6738,9 +6738,9 @@
     </row>
     <row r="101" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A101" s="72"/>
-      <c r="B101" s="206"/>
-      <c r="C101" s="207"/>
-      <c r="D101" s="208"/>
+      <c r="B101" s="209"/>
+      <c r="C101" s="210"/>
+      <c r="D101" s="211"/>
       <c r="E101" s="64"/>
       <c r="F101" s="61"/>
       <c r="G101" s="61"/>
@@ -6819,6 +6819,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B98:D98"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B51:D51"/>
@@ -6835,14 +6843,6 @@
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -6899,13 +6899,13 @@
     </row>
     <row r="2" spans="1:12" s="79" customFormat="1" ht="26.25">
       <c r="A2" s="78"/>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="236" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
       <c r="H2" s="80" t="s">
         <v>116</v>
       </c>
@@ -6916,15 +6916,15 @@
     </row>
     <row r="3" spans="1:12" s="79" customFormat="1" ht="23.25">
       <c r="A3" s="78"/>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="237" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="221"/>
+      <c r="D3" s="237"/>
       <c r="E3" s="151"/>
-      <c r="F3" s="222" t="s">
+      <c r="F3" s="238" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="222"/>
+      <c r="G3" s="238"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
       <c r="J3" s="82"/>
@@ -6949,10 +6949,10 @@
       <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="223"/>
+      <c r="C6" s="220"/>
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -7121,11 +7121,11 @@
       <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="223" t="s">
+      <c r="B14" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
       <c r="G14" s="90"/>
@@ -7301,11 +7301,11 @@
       <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="223" t="s">
+      <c r="B23" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
       <c r="G23" s="90"/>
@@ -7351,10 +7351,10 @@
       <c r="F26" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="224" t="s">
+      <c r="G26" s="239" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="225"/>
+      <c r="H26" s="240"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="95">
@@ -7379,8 +7379,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="218"/>
-      <c r="H27" s="219"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="232"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="95">
@@ -7405,8 +7405,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="218"/>
-      <c r="H28" s="219"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="232"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="95">
@@ -7431,8 +7431,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="218"/>
-      <c r="H29" s="219"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="232"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="95">
@@ -7457,8 +7457,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="218"/>
-      <c r="H30" s="219"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="232"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="95"/>
@@ -7479,8 +7479,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="218"/>
-      <c r="H31" s="219"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="232"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="101"/>
@@ -7518,7 +7518,7 @@
       <c r="E34" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="226" t="s">
+      <c r="F34" s="225" t="s">
         <v>128</v>
       </c>
       <c r="G34" s="227"/>
@@ -7537,8 +7537,8 @@
       <c r="E35" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="229"/>
-      <c r="G35" s="230"/>
+      <c r="F35" s="234"/>
+      <c r="G35" s="235"/>
       <c r="H35" s="119"/>
       <c r="I35" s="119"/>
       <c r="J35" s="119"/>
@@ -7561,8 +7561,8 @@
       <c r="E36" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="218"/>
-      <c r="G36" s="219"/>
+      <c r="F36" s="231"/>
+      <c r="G36" s="232"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="95">
@@ -7580,8 +7580,8 @@
       <c r="E37" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="218"/>
-      <c r="G37" s="219"/>
+      <c r="F37" s="231"/>
+      <c r="G37" s="232"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="101"/>
@@ -7594,10 +7594,10 @@
       <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="220" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="223"/>
+      <c r="C39" s="220"/>
       <c r="D39" s="89"/>
       <c r="E39" s="89"/>
       <c r="F39" s="89"/>
@@ -7621,15 +7621,15 @@
       <c r="B41" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="228" t="s">
+      <c r="C41" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="228"/>
-      <c r="E41" s="228" t="s">
+      <c r="D41" s="233"/>
+      <c r="E41" s="233" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="228"/>
-      <c r="G41" s="228"/>
+      <c r="F41" s="233"/>
+      <c r="G41" s="233"/>
       <c r="H41" s="94" t="s">
         <v>184</v>
       </c>
@@ -7641,15 +7641,15 @@
       <c r="B42" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="231" t="s">
+      <c r="C42" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="231"/>
-      <c r="E42" s="231" t="s">
+      <c r="D42" s="230"/>
+      <c r="E42" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="231"/>
-      <c r="G42" s="231"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -7659,15 +7659,15 @@
       <c r="B43" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="231" t="s">
+      <c r="C43" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="231"/>
-      <c r="E43" s="231" t="s">
+      <c r="D43" s="230"/>
+      <c r="E43" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="231"/>
-      <c r="G43" s="231"/>
+      <c r="F43" s="230"/>
+      <c r="G43" s="230"/>
       <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -7677,15 +7677,15 @@
       <c r="B44" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="231" t="s">
+      <c r="C44" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231" t="s">
+      <c r="D44" s="230"/>
+      <c r="E44" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
+      <c r="F44" s="230"/>
+      <c r="G44" s="230"/>
       <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:12">
@@ -7697,10 +7697,10 @@
       <c r="G45" s="93"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="223" t="s">
+      <c r="B46" s="220" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="223"/>
+      <c r="C46" s="220"/>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
       <c r="F46" s="89"/>
@@ -7718,25 +7718,25 @@
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:12" s="108" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="236" t="s">
+      <c r="B48" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="226" t="s">
+      <c r="C48" s="225" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="238"/>
-      <c r="E48" s="238"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
       <c r="F48" s="227"/>
-      <c r="G48" s="239" t="s">
+      <c r="G48" s="228" t="s">
         <v>158</v>
       </c>
-      <c r="H48" s="239" t="s">
+      <c r="H48" s="228" t="s">
         <v>190</v>
       </c>
-      <c r="I48" s="232" t="s">
+      <c r="I48" s="218" t="s">
         <v>192</v>
       </c>
       <c r="J48" s="107"/>
@@ -7744,8 +7744,8 @@
       <c r="L48" s="107"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="235"/>
-      <c r="B49" s="237"/>
+      <c r="A49" s="222"/>
+      <c r="B49" s="224"/>
       <c r="C49" s="109" t="s">
         <v>167</v>
       </c>
@@ -7758,13 +7758,13 @@
       <c r="F49" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="240"/>
-      <c r="H49" s="240"/>
-      <c r="I49" s="233"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="219"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="235"/>
-      <c r="B50" s="237"/>
+      <c r="A50" s="222"/>
+      <c r="B50" s="224"/>
       <c r="C50" s="123" t="s">
         <v>193</v>
       </c>
@@ -7876,26 +7876,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -7908,6 +7888,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -7945,6 +7945,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -8109,22 +8124,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8141,21 +8158,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/MiddleAssignment_LeTuanSang/TestCase3/TestCase3_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestCase3/TestCase3_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\TestCase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8179C9FE-9393-45D4-8684-22FE585393CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9140F10-68F8-440B-BC53-9DD3FC6B0A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="316">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -1627,6 +1627,9 @@
   </si>
   <si>
     <t>5. Search Result display products for "a"</t>
+  </si>
+  <si>
+    <t>Check UI</t>
   </si>
 </sst>
 </file>
@@ -3171,6 +3174,21 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3186,21 +3204,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3213,15 +3216,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3234,52 +3276,13 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5074,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5091,10 +5094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="204"/>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
+      <c r="A1" s="209"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -5103,12 +5106,12 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
       <c r="E2" s="216"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -5131,11 +5134,11 @@
       <c r="A4" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="204" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -5149,9 +5152,9 @@
       <c r="A5" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -5165,9 +5168,9 @@
       <c r="A6" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -5178,11 +5181,11 @@
       <c r="A7" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="204" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -5377,9 +5380,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="B18" s="211" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="212"/>
+      <c r="D18" s="213"/>
       <c r="E18" s="62"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
@@ -5411,12 +5416,12 @@
         <v>246</v>
       </c>
       <c r="C20" s="164"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="211"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="208"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="25.5">
       <c r="A21" s="56">
@@ -5664,12 +5669,12 @@
         <v>202</v>
       </c>
       <c r="C33" s="164"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="210"/>
-      <c r="I33" s="211"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="208"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="63.75">
       <c r="A34" s="56">
@@ -5992,11 +5997,11 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A51" s="72"/>
-      <c r="B51" s="206" t="s">
+      <c r="B51" s="211" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
+      <c r="C51" s="212"/>
+      <c r="D51" s="213"/>
       <c r="E51" s="64"/>
       <c r="F51" s="61"/>
       <c r="G51" s="61"/>
@@ -6165,11 +6170,11 @@
     </row>
     <row r="60" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A60" s="72"/>
-      <c r="B60" s="206" t="s">
+      <c r="B60" s="211" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="207"/>
-      <c r="D60" s="208"/>
+      <c r="C60" s="212"/>
+      <c r="D60" s="213"/>
       <c r="E60" s="64"/>
       <c r="F60" s="61"/>
       <c r="G60" s="61"/>
@@ -6308,9 +6313,9 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A69" s="72"/>
-      <c r="B69" s="209"/>
-      <c r="C69" s="210"/>
-      <c r="D69" s="211"/>
+      <c r="B69" s="206"/>
+      <c r="C69" s="207"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="64"/>
       <c r="F69" s="61"/>
       <c r="G69" s="61"/>
@@ -6375,9 +6380,9 @@
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A74" s="72"/>
-      <c r="B74" s="209"/>
-      <c r="C74" s="210"/>
-      <c r="D74" s="211"/>
+      <c r="B74" s="206"/>
+      <c r="C74" s="207"/>
+      <c r="D74" s="208"/>
       <c r="E74" s="64"/>
       <c r="F74" s="61"/>
       <c r="G74" s="61"/>
@@ -6428,9 +6433,9 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A78" s="72"/>
-      <c r="B78" s="209"/>
-      <c r="C78" s="210"/>
-      <c r="D78" s="211"/>
+      <c r="B78" s="206"/>
+      <c r="C78" s="207"/>
+      <c r="D78" s="208"/>
       <c r="E78" s="64"/>
       <c r="F78" s="61"/>
       <c r="G78" s="61"/>
@@ -6593,9 +6598,9 @@
     </row>
     <row r="90" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A90" s="72"/>
-      <c r="B90" s="209"/>
-      <c r="C90" s="210"/>
-      <c r="D90" s="211"/>
+      <c r="B90" s="206"/>
+      <c r="C90" s="207"/>
+      <c r="D90" s="208"/>
       <c r="E90" s="64"/>
       <c r="F90" s="61"/>
       <c r="G90" s="61"/>
@@ -6646,9 +6651,9 @@
     </row>
     <row r="94" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A94" s="72"/>
-      <c r="B94" s="209"/>
-      <c r="C94" s="210"/>
-      <c r="D94" s="211"/>
+      <c r="B94" s="206"/>
+      <c r="C94" s="207"/>
+      <c r="D94" s="208"/>
       <c r="E94" s="64"/>
       <c r="F94" s="61"/>
       <c r="G94" s="61"/>
@@ -6699,9 +6704,9 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="72"/>
-      <c r="B98" s="209"/>
-      <c r="C98" s="210"/>
-      <c r="D98" s="211"/>
+      <c r="B98" s="206"/>
+      <c r="C98" s="207"/>
+      <c r="D98" s="208"/>
       <c r="E98" s="64"/>
       <c r="F98" s="61"/>
       <c r="G98" s="61"/>
@@ -6738,9 +6743,9 @@
     </row>
     <row r="101" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A101" s="72"/>
-      <c r="B101" s="209"/>
-      <c r="C101" s="210"/>
-      <c r="D101" s="211"/>
+      <c r="B101" s="206"/>
+      <c r="C101" s="207"/>
+      <c r="D101" s="208"/>
       <c r="E101" s="64"/>
       <c r="F101" s="61"/>
       <c r="G101" s="61"/>
@@ -6819,14 +6824,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B98:D98"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B51:D51"/>
@@ -6843,6 +6840,14 @@
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -6899,13 +6904,13 @@
     </row>
     <row r="2" spans="1:12" s="79" customFormat="1" ht="26.25">
       <c r="A2" s="78"/>
-      <c r="C2" s="236" t="s">
+      <c r="C2" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
       <c r="H2" s="80" t="s">
         <v>116</v>
       </c>
@@ -6916,15 +6921,15 @@
     </row>
     <row r="3" spans="1:12" s="79" customFormat="1" ht="23.25">
       <c r="A3" s="78"/>
-      <c r="C3" s="237" t="s">
+      <c r="C3" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="237"/>
+      <c r="D3" s="221"/>
       <c r="E3" s="151"/>
-      <c r="F3" s="238" t="s">
+      <c r="F3" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="238"/>
+      <c r="G3" s="222"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
       <c r="J3" s="82"/>
@@ -6949,10 +6954,10 @@
       <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="223" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="220"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -7121,11 +7126,11 @@
       <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="223" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
       <c r="G14" s="90"/>
@@ -7301,11 +7306,11 @@
       <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="220" t="s">
+      <c r="B23" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="220"/>
-      <c r="D23" s="220"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
       <c r="G23" s="90"/>
@@ -7351,10 +7356,10 @@
       <c r="F26" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="239" t="s">
+      <c r="G26" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="240"/>
+      <c r="H26" s="225"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="95">
@@ -7379,8 +7384,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="231"/>
-      <c r="H27" s="232"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="219"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="95">
@@ -7405,8 +7410,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="231"/>
-      <c r="H28" s="232"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="219"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="95">
@@ -7431,8 +7436,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="231"/>
-      <c r="H29" s="232"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="219"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="95">
@@ -7457,8 +7462,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="231"/>
-      <c r="H30" s="232"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="219"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="95"/>
@@ -7479,8 +7484,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="231"/>
-      <c r="H31" s="232"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="219"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="101"/>
@@ -7518,7 +7523,7 @@
       <c r="E34" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="225" t="s">
+      <c r="F34" s="226" t="s">
         <v>128</v>
       </c>
       <c r="G34" s="227"/>
@@ -7537,8 +7542,8 @@
       <c r="E35" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="234"/>
-      <c r="G35" s="235"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="230"/>
       <c r="H35" s="119"/>
       <c r="I35" s="119"/>
       <c r="J35" s="119"/>
@@ -7561,8 +7566,8 @@
       <c r="E36" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="231"/>
-      <c r="G36" s="232"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="219"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="95">
@@ -7580,8 +7585,8 @@
       <c r="E37" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="231"/>
-      <c r="G37" s="232"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="219"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="101"/>
@@ -7594,10 +7599,10 @@
       <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="220" t="s">
+      <c r="B39" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="220"/>
+      <c r="C39" s="223"/>
       <c r="D39" s="89"/>
       <c r="E39" s="89"/>
       <c r="F39" s="89"/>
@@ -7621,15 +7626,15 @@
       <c r="B41" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="233" t="s">
+      <c r="C41" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="233"/>
-      <c r="E41" s="233" t="s">
+      <c r="D41" s="228"/>
+      <c r="E41" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="233"/>
-      <c r="G41" s="233"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="228"/>
       <c r="H41" s="94" t="s">
         <v>184</v>
       </c>
@@ -7641,15 +7646,15 @@
       <c r="B42" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="230" t="s">
+      <c r="C42" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="230"/>
-      <c r="E42" s="230" t="s">
+      <c r="D42" s="231"/>
+      <c r="E42" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="F42" s="231"/>
+      <c r="G42" s="231"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -7659,15 +7664,15 @@
       <c r="B43" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="230" t="s">
+      <c r="C43" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="230"/>
-      <c r="E43" s="230" t="s">
+      <c r="D43" s="231"/>
+      <c r="E43" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="230"/>
-      <c r="G43" s="230"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
       <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -7677,15 +7682,15 @@
       <c r="B44" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="230" t="s">
+      <c r="C44" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="230"/>
-      <c r="E44" s="230" t="s">
+      <c r="D44" s="231"/>
+      <c r="E44" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="230"/>
-      <c r="G44" s="230"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="231"/>
       <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:12">
@@ -7697,10 +7702,10 @@
       <c r="G45" s="93"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="220" t="s">
+      <c r="B46" s="223" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="220"/>
+      <c r="C46" s="223"/>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
       <c r="F46" s="89"/>
@@ -7718,25 +7723,25 @@
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:12" s="108" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="221" t="s">
+      <c r="A48" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="223" t="s">
+      <c r="B48" s="236" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="225" t="s">
+      <c r="C48" s="226" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
+      <c r="D48" s="238"/>
+      <c r="E48" s="238"/>
       <c r="F48" s="227"/>
-      <c r="G48" s="228" t="s">
+      <c r="G48" s="239" t="s">
         <v>158</v>
       </c>
-      <c r="H48" s="228" t="s">
+      <c r="H48" s="239" t="s">
         <v>190</v>
       </c>
-      <c r="I48" s="218" t="s">
+      <c r="I48" s="232" t="s">
         <v>192</v>
       </c>
       <c r="J48" s="107"/>
@@ -7744,8 +7749,8 @@
       <c r="L48" s="107"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="222"/>
-      <c r="B49" s="224"/>
+      <c r="A49" s="235"/>
+      <c r="B49" s="237"/>
       <c r="C49" s="109" t="s">
         <v>167</v>
       </c>
@@ -7758,13 +7763,13 @@
       <c r="F49" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="229"/>
-      <c r="H49" s="229"/>
-      <c r="I49" s="219"/>
+      <c r="G49" s="240"/>
+      <c r="H49" s="240"/>
+      <c r="I49" s="233"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="222"/>
-      <c r="B50" s="224"/>
+      <c r="A50" s="235"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="123" t="s">
         <v>193</v>
       </c>
@@ -7876,6 +7881,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -7888,26 +7913,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -7945,21 +7950,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -8124,24 +8114,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8158,4 +8146,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>